--- a/PLANEACION_DEL_PROYECTO/SCA-001_Matriz -de-responsabilidades.xlsx
+++ b/PLANEACION_DEL_PROYECTO/SCA-001_Matriz -de-responsabilidades.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ITI-902\ADMINISTRACIÓN_DE_PROYECTOS II\Plantillas_Act2Parc1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lia\Desktop\SCA-001-Doc\PLANEACION_DEL_PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Identificación" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="125">
   <si>
     <t>&lt;Logotipo&gt;</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Localización del Documento</t>
-  </si>
-  <si>
-    <t>[Repositorio, Localización]</t>
   </si>
   <si>
     <t>Documento base</t>
@@ -471,12 +468,18 @@
   <si>
     <t>C/I</t>
   </si>
+  <si>
+    <t>https://github.com/RafaHNDZ/SCA-Documentation/tree/master/PLANEACION_DEL_PROYECTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/RafaHNDZ/SCA-Documentation/tree/master/PLANEACION_DEL_PROYECTO </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,6 +541,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -689,10 +700,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -755,6 +767,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -766,15 +781,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -791,14 +797,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1177,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,21 +1211,21 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="24"/>
+      <c r="B3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="24"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="24"/>
+      <c r="B5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1217,7 +1233,7 @@
     <row r="7" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1241,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1263,7 +1279,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1273,8 +1289,8 @@
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
+      <c r="C13" s="38" t="s">
+        <v>124</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1282,10 +1298,10 @@
     <row r="14" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>7</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>8</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="5"/>
@@ -1299,20 +1315,20 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="26"/>
+      <c r="B16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="27"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1320,9 +1336,9 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="37">
+        <v>41</v>
+      </c>
+      <c r="C18" s="24">
         <v>42518</v>
       </c>
       <c r="D18" s="5"/>
@@ -1331,9 +1347,9 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="37">
+        <v>38</v>
+      </c>
+      <c r="C19" s="24">
         <v>42518</v>
       </c>
       <c r="D19" s="5"/>
@@ -1355,20 +1371,20 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="26"/>
+      <c r="B22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="27"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1376,9 +1392,9 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="37">
+        <v>38</v>
+      </c>
+      <c r="C24" s="24">
         <v>42518</v>
       </c>
       <c r="D24" s="5"/>
@@ -1387,9 +1403,9 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="37">
+        <v>39</v>
+      </c>
+      <c r="C25" s="24">
         <v>42518</v>
       </c>
       <c r="D25" s="5"/>
@@ -1398,9 +1414,9 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="37">
+        <v>37</v>
+      </c>
+      <c r="C26" s="24">
         <v>42518</v>
       </c>
       <c r="D26" s="5"/>
@@ -1409,7 +1425,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="5"/>
@@ -1424,12 +1440,12 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="26"/>
+      <c r="B29" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -1440,10 +1456,10 @@
         <v>3</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1474,8 +1490,11 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B29:E29"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1484,7 +1503,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,22 +1514,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
+      <c r="A2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
+      <c r="A3" s="25"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
     </row>
     <row r="6" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1531,7 +1550,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1551,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1561,17 +1580,17 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1589,12 +1608,12 @@
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="26"/>
+      <c r="A16" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1604,10 +1623,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1642,7 +1661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17:J17"/>
     </sheetView>
   </sheetViews>
@@ -1655,40 +1674,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
@@ -1698,17 +1717,17 @@
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1716,196 +1735,196 @@
       <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="36"/>
+      <c r="A7" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="35"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="29"/>
+      <c r="A14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="37"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
@@ -1916,37 +1935,37 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="21"/>
       <c r="D16" s="23"/>
@@ -1958,10 +1977,10 @@
       <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="29"/>
+      <c r="A17" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="37"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -1971,10 +1990,10 @@
       <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="29"/>
+      <c r="A18" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="37"/>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -1984,323 +2003,323 @@
       <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="D19" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="D19" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="29"/>
+      <c r="A23" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="37"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="29"/>
+      <c r="A24" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="37"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="B28" s="37"/>
+      <c r="C28" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="B29" s="37"/>
+      <c r="C29" s="23"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="23"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="B30" s="37"/>
+      <c r="C30" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="23"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
@@ -2310,184 +2329,184 @@
       <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="37"/>
+      <c r="C33" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="23" t="s">
+      <c r="B34" s="37"/>
+      <c r="C34" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E33" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="D34" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="23" t="s">
+      <c r="B35" s="37"/>
+      <c r="C35" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="J36" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="J36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="29"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="29"/>
+      <c r="A38" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="37"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="29"/>
+      <c r="A39" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="37"/>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
@@ -2498,956 +2517,956 @@
       <c r="J39" s="23"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="29"/>
+      <c r="A40" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="37"/>
       <c r="C40" s="23"/>
       <c r="E40" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="37"/>
+      <c r="C41" s="23"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="23"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="B42" s="37"/>
+      <c r="C42" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I42" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
+      <c r="B43" s="37"/>
+      <c r="C43" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G43" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I43" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+      <c r="B44" s="37"/>
+      <c r="C44" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
+      <c r="B45" s="37"/>
+      <c r="C45" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I45" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J45" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
+      <c r="B46" s="37"/>
+      <c r="C46" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I46" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J46" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
+      <c r="B47" s="37"/>
+      <c r="C47" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I47" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
+      <c r="B48" s="37"/>
+      <c r="C48" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G48" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I48" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J48" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
+      <c r="B49" s="37"/>
+      <c r="C49" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G49" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I49" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J49" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
+      <c r="B50" s="37"/>
+      <c r="C50" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G50" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I50" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J50" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
+      <c r="B51" s="37"/>
+      <c r="C51" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G51" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J51" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
+      <c r="B52" s="37"/>
+      <c r="C52" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G52" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I52" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="B53" s="37"/>
+      <c r="C53" s="23"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="23"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="37"/>
+      <c r="C55" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G55" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I55" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J55" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
+      <c r="B56" s="37"/>
+      <c r="C56" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G56" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I56" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J56" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="29"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J57" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" s="21"/>
       <c r="C58" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J58" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59" s="21"/>
       <c r="C59" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J59" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" s="21"/>
       <c r="C60" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J60" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B61" s="21"/>
       <c r="C61" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J61" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B62" s="21"/>
       <c r="C62" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B65" s="21"/>
       <c r="C65" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J65" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="37"/>
+      <c r="H66" s="23"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="H66" s="23"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="30" t="s">
+      <c r="B67" s="37"/>
+      <c r="C67" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F67" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="H67" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I67" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J67" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="30" t="s">
+      <c r="B68" s="37"/>
+      <c r="C68" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J68" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="37"/>
+      <c r="H69" s="23"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="29"/>
-      <c r="C68" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="H68" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I68" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J68" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B69" s="29"/>
-      <c r="H69" s="23"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="30" t="s">
+      <c r="B70" s="37"/>
+      <c r="C70" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I70" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J70" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="29"/>
-      <c r="C70" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F70" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H70" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I70" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J70" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B71" s="29"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="23"/>
       <c r="D71" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I71" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J71" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="37"/>
+      <c r="C72" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I72" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="29"/>
-      <c r="C72" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F72" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G72" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H72" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I72" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J72" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B73" s="29"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G73" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H73" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I73" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J73" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B74" s="17"/>
       <c r="C74" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G74" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I74" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J74" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B75" s="17"/>
       <c r="C75" s="23"/>
@@ -3455,274 +3474,327 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B76" s="17"/>
       <c r="C76" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I76" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J76" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B77" s="17"/>
       <c r="C77" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I77" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J77" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B78" s="17"/>
       <c r="C78" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G78" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H78" s="23"/>
       <c r="I78" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J78" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B79" s="17"/>
       <c r="C79" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G79" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H79" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I79" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J79" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80" s="37"/>
+      <c r="C80" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B80" s="29"/>
-      <c r="C80" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D80" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E80" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F80" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I80" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J80" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B81" s="29"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G81" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I81" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J81" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B82" s="29"/>
+      <c r="A82" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="37"/>
       <c r="C82" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G82" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I82" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J82" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="30"/>
-      <c r="B83" s="29"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="37"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="30"/>
-      <c r="B84" s="29"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="37"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="30"/>
-      <c r="B85" s="29"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="37"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="34"/>
+      <c r="A87" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="32"/>
     </row>
     <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B88" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
+        <v>23</v>
+      </c>
+      <c r="B88" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
     </row>
     <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B89" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
+        <v>24</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
     </row>
     <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
+        <v>25</v>
+      </c>
+      <c r="B90" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
     </row>
     <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B91" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
+        <v>26</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B91:D91"/>
@@ -3739,59 +3811,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
